--- a/Experiments/Oil Dispute/Oil Dispute Score Statistics.xlsx
+++ b/Experiments/Oil Dispute/Oil Dispute Score Statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="12200"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>value</t>
   </si>
@@ -100,6 +100,15 @@
     <t>0 Bunker Hill</t>
   </si>
   <si>
+    <t>TCGA</t>
+  </si>
+  <si>
+    <t>100 Ticonderoga</t>
+  </si>
+  <si>
+    <t>75 Ticonderoga</t>
+  </si>
+  <si>
     <t>Eliminate High-value Targets</t>
   </si>
   <si>
@@ -107,9 +116,6 @@
   </si>
   <si>
     <t>100 Arleigh Burke</t>
-  </si>
-  <si>
-    <t>100 Ticonderoga</t>
   </si>
   <si>
     <t>69 Ticonderoga</t>
@@ -852,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,9 +868,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -875,9 +878,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1224,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Z40"/>
+  <dimension ref="A2:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1254,32 +1254,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>110</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2">
@@ -1291,97 +1291,97 @@
       <c r="H3" s="2">
         <v>25</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <f>H3/E3</f>
         <v>0.592417061611374</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="J5" s="16"/>
+      <c r="D5" s="7"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>650</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="3"/>
-      <c r="D7" s="10">
+      <c r="B7" s="2"/>
+      <c r="D7" s="8">
         <f>0.4</f>
         <v>0.4</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11">
         <f>0.25</f>
         <v>0.25</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="18"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="10" spans="4:18">
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="6" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="5" t="s">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="14" t="s">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="4:18">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="2">
@@ -1395,11 +1395,11 @@
         <f>(21*650+8*100)/100</f>
         <v>144.5</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <f>H11/E11</f>
         <v>0.694711538461538</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11">
@@ -1412,408 +1412,466 @@
       <c r="P11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="15" t="e">
+      <c r="R11" s="13" t="e">
         <f>P11/M11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="4:18">
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="L12" s="8" t="s">
+      <c r="J12" s="14"/>
+      <c r="L12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="16"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="4:18">
-      <c r="D13" s="8"/>
-      <c r="J13" s="16"/>
-      <c r="L13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="J13" s="14"/>
+      <c r="L13" s="7"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="R13" s="16"/>
+      <c r="R13" s="14"/>
     </row>
     <row r="14" spans="4:18">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="L14" s="9" t="s">
+      <c r="J14" s="15"/>
+      <c r="L14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R14" s="17"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="4:18">
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <f>0.32</f>
         <v>0.32</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13">
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11">
         <f>0.29</f>
         <v>0.29</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="18"/>
-      <c r="L15" s="10">
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="16"/>
+      <c r="L15" s="8">
         <v>0</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13">
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11">
         <v>0</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="18"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="14" t="s">
+      <c r="E18" s="2">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2">
+        <v>75</v>
+      </c>
+      <c r="J18" s="13">
+        <f>H18/E18</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="7"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="7"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="4:10">
-      <c r="D19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2">
+    <row r="25" spans="4:10">
+      <c r="D25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2">
         <v>210</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="2">
         <v>179</v>
       </c>
-      <c r="J19" s="15">
-        <f>H19/E19</f>
+      <c r="J25" s="13">
+        <f>H25/E25</f>
         <v>0.852380952380952</v>
       </c>
     </row>
-    <row r="20" spans="4:10">
-      <c r="D20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="4:10">
-      <c r="D21" s="8"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="4:10">
-      <c r="D22" s="9" t="s">
+    <row r="26" spans="4:10">
+      <c r="D26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="4:10">
+      <c r="D27" s="7"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="4:10">
+      <c r="D28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="4:10">
-      <c r="D23" s="10">
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="D29" s="8">
         <v>2</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11">
         <v>1.69</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="26" spans="4:26">
-      <c r="D26" s="4"/>
-      <c r="E26" s="5" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="32" spans="4:26">
+      <c r="D32" s="3"/>
+      <c r="E32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32" s="5"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26">
+      <c r="D33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="14" t="s">
+      <c r="E33" s="2">
+        <v>231</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="2">
+        <v>200</v>
+      </c>
+      <c r="J33" s="13">
+        <f>H33/E33</f>
+        <v>0.865800865800866</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="2">
+        <v>100</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="2">
+        <v>74</v>
+      </c>
+      <c r="R33" s="13">
+        <f>P33/M33</f>
+        <v>0.74</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U33" s="2">
+        <v>210</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X33" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z33" s="13">
+        <f>X33/U33</f>
+        <v>0.842857142857143</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26">
+      <c r="D34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="2"/>
+      <c r="R34" s="14"/>
+      <c r="T34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="14"/>
+    </row>
+    <row r="35" spans="4:26">
+      <c r="D35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="2"/>
+      <c r="R35" s="14"/>
+      <c r="T35" s="7"/>
+      <c r="Z35" s="14"/>
+    </row>
+    <row r="36" spans="4:26">
+      <c r="D36" s="7"/>
+      <c r="J36" s="15"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="2"/>
+      <c r="R36" s="15"/>
+      <c r="T36" s="7"/>
+      <c r="Z36" s="15"/>
+    </row>
+    <row r="37" spans="4:26">
+      <c r="D37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="15"/>
+      <c r="L37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="O37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R37" s="15"/>
+      <c r="T37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z37" s="15"/>
+    </row>
+    <row r="38" spans="4:26">
+      <c r="D38" s="8">
+        <v>2.21</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="16"/>
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="16"/>
+      <c r="T38" s="8">
+        <v>2</v>
+      </c>
+      <c r="U38" s="9"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="16"/>
+    </row>
+    <row r="41" spans="4:10">
+      <c r="D41" s="3"/>
+      <c r="E41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="4:26">
-      <c r="D27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="2">
-        <v>231</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="2">
-        <v>200</v>
-      </c>
-      <c r="J27" s="15">
-        <f>H27/E27</f>
-        <v>0.865800865800866</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="2">
-        <v>100</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="2">
-        <v>74</v>
-      </c>
-      <c r="R27" s="15">
-        <f>P27/M27</f>
-        <v>0.74</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="U27" s="2">
+    </row>
+    <row r="42" spans="4:10">
+      <c r="D42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2">
         <v>210</v>
       </c>
-      <c r="W27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X27" s="2">
+      <c r="G42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="2">
         <v>177</v>
       </c>
-      <c r="Z27" s="15">
-        <f>X27/U27</f>
+      <c r="J42" s="13">
+        <f>H42/E42</f>
         <v>0.842857142857143</v>
       </c>
     </row>
-    <row r="28" spans="4:26">
-      <c r="D28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="16"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="2"/>
-      <c r="R28" s="16"/>
-      <c r="T28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U28" s="2"/>
-      <c r="W28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z28" s="16"/>
-    </row>
-    <row r="29" spans="4:26">
-      <c r="D29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="1" t="s">
+    <row r="43" spans="4:10">
+      <c r="D43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="2"/>
-      <c r="R29" s="16"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="2"/>
-      <c r="Z29" s="16"/>
-    </row>
-    <row r="30" spans="4:26">
-      <c r="D30" s="8"/>
-      <c r="J30" s="17"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="2"/>
-      <c r="R30" s="17"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="2"/>
-      <c r="Z30" s="17"/>
-    </row>
-    <row r="31" spans="4:26">
-      <c r="D31" s="9" t="s">
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="4:10">
+      <c r="D44" s="7"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="4:10">
+      <c r="D45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="L31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="O31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R31" s="17"/>
-      <c r="T31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U31" s="2"/>
-      <c r="W31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z31" s="17"/>
-    </row>
-    <row r="32" spans="4:26">
-      <c r="D32" s="10">
-        <v>2.21</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="18"/>
-      <c r="L32" s="10">
-        <v>1</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="13">
-        <v>0.74</v>
-      </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="18"/>
-      <c r="T32" s="10">
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="4:10">
+      <c r="D46" s="8">
         <v>2</v>
       </c>
-      <c r="U32" s="11"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="13">
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11">
         <v>1.67</v>
       </c>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="18"/>
-    </row>
-    <row r="35" spans="4:10">
-      <c r="D35" s="4"/>
-      <c r="E35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10">
-      <c r="D36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="2">
-        <v>210</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="2">
-        <v>177</v>
-      </c>
-      <c r="J36" s="15">
-        <f>H36/E36</f>
-        <v>0.842857142857143</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10">
-      <c r="D37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="4:10">
-      <c r="D38" s="8"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="4:10">
-      <c r="D39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="4:10">
-      <c r="D40" s="10">
-        <v>2</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13">
-        <v>1.67</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="19"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiments/Oil Dispute/Oil Dispute Score Statistics.xlsx
+++ b/Experiments/Oil Dispute/Oil Dispute Score Statistics.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>value</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>TCGA</t>
+  </si>
+  <si>
+    <t>TCGA-perturbed version</t>
   </si>
   <si>
     <t>100 Ticonderoga</t>
@@ -1227,7 +1230,7 @@
   <dimension ref="A2:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1490,7 +1493,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="12" t="s">
@@ -1499,13 +1502,13 @@
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2">
         <v>100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" s="2">
         <v>75</v>
@@ -1548,12 +1551,12 @@
     <row r="24" spans="4:10">
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="H24" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="12" t="s">
@@ -1562,13 +1565,13 @@
     </row>
     <row r="25" spans="4:10">
       <c r="D25" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2">
         <v>210</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25" s="2">
         <v>179</v>
@@ -1580,10 +1583,10 @@
     </row>
     <row r="26" spans="4:10">
       <c r="D26" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J26" s="14"/>
     </row>
@@ -1616,12 +1619,12 @@
     <row r="32" spans="4:26">
       <c r="D32" s="3"/>
       <c r="E32" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
       <c r="H32" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="12" t="s">
@@ -1629,12 +1632,12 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="6"/>
       <c r="P32" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="12" t="s">
@@ -1642,12 +1645,12 @@
       </c>
       <c r="T32" s="3"/>
       <c r="U32" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V32" s="5"/>
       <c r="W32" s="6"/>
       <c r="X32" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y32" s="5"/>
       <c r="Z32" s="12" t="s">
@@ -1656,13 +1659,13 @@
     </row>
     <row r="33" spans="4:26">
       <c r="D33" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2">
         <v>231</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H33" s="2">
         <v>200</v>
@@ -1672,13 +1675,13 @@
         <v>0.865800865800866</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M33" s="2">
         <v>100</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P33" s="2">
         <v>74</v>
@@ -1688,13 +1691,13 @@
         <v>0.74</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U33" s="2">
         <v>210</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X33" s="2">
         <v>177</v>
@@ -1706,29 +1709,29 @@
     </row>
     <row r="34" spans="4:26">
       <c r="D34" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J34" s="14"/>
       <c r="L34" s="7"/>
       <c r="M34" s="2"/>
       <c r="R34" s="14"/>
       <c r="T34" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z34" s="14"/>
     </row>
     <row r="35" spans="4:26">
       <c r="D35" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J35" s="14"/>
       <c r="L35" s="7"/>
@@ -1808,12 +1811,12 @@
     <row r="41" spans="4:10">
       <c r="D41" s="3"/>
       <c r="E41" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
       <c r="H41" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="12" t="s">
@@ -1822,13 +1825,13 @@
     </row>
     <row r="42" spans="4:10">
       <c r="D42" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E42" s="2">
         <v>210</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H42" s="2">
         <v>177</v>
@@ -1840,10 +1843,10 @@
     </row>
     <row r="43" spans="4:10">
       <c r="D43" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J43" s="14"/>
     </row>
